--- a/gridToFill Iteration 1 Team 11.xlsx
+++ b/gridToFill Iteration 1 Team 11.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gack\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gack\eclipse-workspace\3004Team11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE3C0E-E447-4174-9A1A-7C17E20A112F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="4680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1273,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>59</v>

--- a/gridToFill Iteration 1 Team 11.xlsx
+++ b/gridToFill Iteration 1 Team 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gack\eclipse-workspace\3004Team11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CE3C0E-E447-4174-9A1A-7C17E20A112F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1056A949-0DA2-49F7-8962-972E74E3B021}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="4680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,7 +847,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1295,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>59</v>
@@ -1328,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>59</v>
@@ -1339,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>59</v>

--- a/gridToFill Iteration 1 Team 11.xlsx
+++ b/gridToFill Iteration 1 Team 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gack\eclipse-workspace\3004Team11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1056A949-0DA2-49F7-8962-972E74E3B021}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F22263-6104-41D0-AC49-8D93A86DF6E0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="4680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/gridToFill Iteration 1 Team 11.xlsx
+++ b/gridToFill Iteration 1 Team 11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gack\eclipse-workspace\3004Team11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davepierre/eclipse-workspace/3004Team11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F22263-6104-41D0-AC49-8D93A86DF6E0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="4680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,9 @@
   </definedNames>
   <calcPr calcId="130407" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -328,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -843,18 +845,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="24.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1144,7 +1146,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>59</v>
@@ -1155,7 +1157,7 @@
         <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>59</v>
@@ -1350,7 +1352,7 @@
         <v>36</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>59</v>
@@ -1498,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>59</v>
@@ -1663,7 +1665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -1685,14 +1687,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -1703,28 +1705,28 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -1743,12 +1745,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -1757,10 +1759,5 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>